--- a/biology/Biochimie/Anaérobie/Anaérobie.xlsx
+++ b/biology/Biochimie/Anaérobie/Anaérobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana%C3%A9robie</t>
+          <t>Anaérobie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un anaérobie ou organisme anaérobie est tout organisme dont le métabolisme redox ne dépend pas du dioxygène. Anaérobie signifie « vivant, actif, survenant ou existant en l'absence du dioxygène », par opposition à aérobie qui signifie « vivant, actif ou se produisant uniquement en présence de dioxygène ».
 Cela ne signifie pas que l'oxygène est absent des réactions chimiques. La dénitrification, par exemple, processus microbien de respiration anaérobie (respiration utilisant des accepteurs d'électrons autres que le dioxygène) utilise les ions nitrates comme accepteurs d'électrons. Ce phénomène biologique est opéré en milieu hypoxique ou anoxique, par des bactéries spécifiques qui satisfont leur besoin en oxydant par une désoxygénation des nitrates. 
-Dans la méthanogenèse microbienne, autre forme de respiration anaérobie (l'oxygène étant un inhibiteur de croissance chez les méthanogènes) l'accepteur final d'électrons est le carbone de petites molécules organiques. Les méthanogènes prospèrent habituellement dans les environnements dans lesquels tous les autres accepteurs d'électrons (comme l'oxygène, les nitrates, les sulfates, et fer trivalent) ont été épuisés. L'oxygène moléculaire, des nitrate, sulfate  fer (III) (en) (aussi manganèse (IV)) maintiennent tous le potentiel redox à des niveaux plus élevés. Dans cette dernière condition la production de méthane par les archées méthanogène dans les marais par exemple peut être inhibée[1].
-La condition anaérobie est selon l'ISO 6107-1:2004[2] le « descriptif d'une condition dans laquelle l'oxygène dissous, les nitrates et les nitrites sont absents ».
+Dans la méthanogenèse microbienne, autre forme de respiration anaérobie (l'oxygène étant un inhibiteur de croissance chez les méthanogènes) l'accepteur final d'électrons est le carbone de petites molécules organiques. Les méthanogènes prospèrent habituellement dans les environnements dans lesquels tous les autres accepteurs d'électrons (comme l'oxygène, les nitrates, les sulfates, et fer trivalent) ont été épuisés. L'oxygène moléculaire, des nitrate, sulfate  fer (III) (en) (aussi manganèse (IV)) maintiennent tous le potentiel redox à des niveaux plus élevés. Dans cette dernière condition la production de méthane par les archées méthanogène dans les marais par exemple peut être inhibée.
+La condition anaérobie est selon l'ISO 6107-1:2004 le « descriptif d'une condition dans laquelle l'oxygène dissous, les nitrates et les nitrites sont absents ».
 L'ensemble des conditions de vie des organismes vivants dans un milieu sans dioxygène est appelé anaérobiose.
 Un digesteur produit du biogaz en anaérobie, un muscle a tout d'abord un fonctionnement anaérobie au début de l'excitation (fermentation lactique), un ferment transforme un sucre en alcool.
 </t>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana%C3%A9robie</t>
+          <t>Anaérobie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Organismes anaérobies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On observe différents types d'organismes anaérobies :
 les anaérobies obligatoires qui meurent lorsqu'ils sont exposés à du dioxygène à teneur atmosphérique, et peuvent indifféremment utiliser la fermentation ou la respiration anaérobie (ex. : bactéries du genre Clostridium) ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana%C3%A9robie</t>
+          <t>Anaérobie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Équations réactionnelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs équations réactionnelles traduisent la fermentation anaérobie : Les organismes à fermentation anaérobie utilisent le plus souvent la fermentation lactique :
 C6H12O6 + 2 ADP + 2 Pi → 2 C3H6O3 + 2 ATP
